--- a/data/Excel Workbooks/Calvin/AllDataWorkbook.xlsx
+++ b/data/Excel Workbooks/Calvin/AllDataWorkbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28100" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28100" windowHeight="17560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Totals" sheetId="1" r:id="rId1"/>
@@ -631,7 +631,6 @@
           <cell r="F31">
             <v>109915405.2920381</v>
           </cell>
-          <cell r="G31"/>
         </row>
         <row r="32">
           <cell r="B32">
@@ -649,7 +648,6 @@
           <cell r="F32">
             <v>111903919.60804667</v>
           </cell>
-          <cell r="G32"/>
         </row>
         <row r="33">
           <cell r="B33">
@@ -667,7 +665,6 @@
           <cell r="F33">
             <v>112231166.058724</v>
           </cell>
-          <cell r="G33"/>
         </row>
         <row r="34">
           <cell r="B34">
@@ -685,7 +682,6 @@
           <cell r="F34">
             <v>114164440.23231481</v>
           </cell>
-          <cell r="G34"/>
         </row>
         <row r="35">
           <cell r="B35">
@@ -703,7 +699,6 @@
           <cell r="F35">
             <v>114357368.88240935</v>
           </cell>
-          <cell r="G35"/>
         </row>
         <row r="36">
           <cell r="B36">
@@ -721,7 +716,6 @@
           <cell r="F36">
             <v>113804096.76465414</v>
           </cell>
-          <cell r="G36"/>
         </row>
         <row r="37">
           <cell r="B37">
@@ -739,7 +733,6 @@
           <cell r="F37">
             <v>115850606.6016251</v>
           </cell>
-          <cell r="G37"/>
         </row>
         <row r="38">
           <cell r="B38">
@@ -757,7 +750,6 @@
           <cell r="F38">
             <v>113359007.11657986</v>
           </cell>
-          <cell r="G38"/>
         </row>
         <row r="39">
           <cell r="B39">
@@ -775,7 +767,6 @@
           <cell r="F39">
             <v>108398550.22518174</v>
           </cell>
-          <cell r="G39"/>
         </row>
         <row r="40">
           <cell r="B40">
@@ -793,7 +784,6 @@
           <cell r="F40">
             <v>112521469.72753748</v>
           </cell>
-          <cell r="G40"/>
         </row>
         <row r="41">
           <cell r="B41">
@@ -811,7 +801,6 @@
           <cell r="F41">
             <v>111928732.9034314</v>
           </cell>
-          <cell r="G41"/>
         </row>
       </sheetData>
       <sheetData sheetId="1">
@@ -826,10 +815,10 @@
             <v>iGDP</v>
           </cell>
           <cell r="F1" t="str">
-            <v>iQ</v>
+            <v>iQp</v>
           </cell>
           <cell r="G1" t="str">
-            <v>iX</v>
+            <v>iXp</v>
           </cell>
           <cell r="H1" t="str">
             <v>iU</v>
@@ -864,7 +853,7 @@
             <v>US</v>
           </cell>
           <cell r="J2" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="3">
@@ -896,7 +885,7 @@
             <v>US</v>
           </cell>
           <cell r="J3" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="4">
@@ -928,7 +917,7 @@
             <v>US</v>
           </cell>
           <cell r="J4" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="5">
@@ -960,7 +949,7 @@
             <v>US</v>
           </cell>
           <cell r="J5" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="6">
@@ -992,7 +981,7 @@
             <v>US</v>
           </cell>
           <cell r="J6" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="7">
@@ -1024,7 +1013,7 @@
             <v>US</v>
           </cell>
           <cell r="J7" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="8">
@@ -1056,7 +1045,7 @@
             <v>US</v>
           </cell>
           <cell r="J8" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="9">
@@ -1088,7 +1077,7 @@
             <v>US</v>
           </cell>
           <cell r="J9" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="10">
@@ -1120,7 +1109,7 @@
             <v>US</v>
           </cell>
           <cell r="J10" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="11">
@@ -1152,7 +1141,7 @@
             <v>US</v>
           </cell>
           <cell r="J11" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="12">
@@ -1184,7 +1173,7 @@
             <v>US</v>
           </cell>
           <cell r="J12" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="13">
@@ -1216,7 +1205,7 @@
             <v>US</v>
           </cell>
           <cell r="J13" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="14">
@@ -1248,7 +1237,7 @@
             <v>US</v>
           </cell>
           <cell r="J14" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="15">
@@ -1280,7 +1269,7 @@
             <v>US</v>
           </cell>
           <cell r="J15" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="16">
@@ -1312,7 +1301,7 @@
             <v>US</v>
           </cell>
           <cell r="J16" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="17">
@@ -1344,7 +1333,7 @@
             <v>US</v>
           </cell>
           <cell r="J17" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="18">
@@ -1376,7 +1365,7 @@
             <v>US</v>
           </cell>
           <cell r="J18" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="19">
@@ -1408,7 +1397,7 @@
             <v>US</v>
           </cell>
           <cell r="J19" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="20">
@@ -1440,7 +1429,7 @@
             <v>US</v>
           </cell>
           <cell r="J20" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="21">
@@ -1472,7 +1461,7 @@
             <v>US</v>
           </cell>
           <cell r="J21" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="22">
@@ -1504,7 +1493,7 @@
             <v>US</v>
           </cell>
           <cell r="J22" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="23">
@@ -1536,7 +1525,7 @@
             <v>US</v>
           </cell>
           <cell r="J23" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="24">
@@ -1568,7 +1557,7 @@
             <v>US</v>
           </cell>
           <cell r="J24" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="25">
@@ -1600,7 +1589,7 @@
             <v>US</v>
           </cell>
           <cell r="J25" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="26">
@@ -1632,7 +1621,7 @@
             <v>US</v>
           </cell>
           <cell r="J26" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="27">
@@ -1664,7 +1653,7 @@
             <v>US</v>
           </cell>
           <cell r="J27" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="28">
@@ -1696,7 +1685,7 @@
             <v>US</v>
           </cell>
           <cell r="J28" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="29">
@@ -1728,7 +1717,7 @@
             <v>US</v>
           </cell>
           <cell r="J29" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="30">
@@ -1760,7 +1749,7 @@
             <v>US</v>
           </cell>
           <cell r="J30" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="31">
@@ -1792,7 +1781,7 @@
             <v>US</v>
           </cell>
           <cell r="J31" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="32">
@@ -1824,7 +1813,7 @@
             <v>US</v>
           </cell>
           <cell r="J32" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="33">
@@ -1856,19 +1845,19 @@
             <v>US</v>
           </cell>
           <cell r="J33" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="7" refreshError="1"/>
       <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2328,7 +2317,6 @@
           <cell r="F31">
             <v>11144166.798050607</v>
           </cell>
-          <cell r="G31"/>
         </row>
         <row r="32">
           <cell r="B32">
@@ -2346,7 +2334,6 @@
           <cell r="F32">
             <v>11015155.620566113</v>
           </cell>
-          <cell r="G32"/>
         </row>
         <row r="33">
           <cell r="B33">
@@ -2364,7 +2351,6 @@
           <cell r="F33">
             <v>11094865.579103425</v>
           </cell>
-          <cell r="G33"/>
         </row>
         <row r="34">
           <cell r="B34">
@@ -2382,7 +2368,6 @@
           <cell r="F34">
             <v>11120819.266400851</v>
           </cell>
-          <cell r="G34"/>
         </row>
         <row r="35">
           <cell r="B35">
@@ -2400,7 +2385,6 @@
           <cell r="F35">
             <v>11128432.465469405</v>
           </cell>
-          <cell r="G35"/>
         </row>
         <row r="36">
           <cell r="B36">
@@ -2418,7 +2402,6 @@
           <cell r="F36">
             <v>11026109.906001028</v>
           </cell>
-          <cell r="G36"/>
         </row>
         <row r="37">
           <cell r="B37">
@@ -2436,7 +2419,6 @@
           <cell r="F37">
             <v>10648124.52210205</v>
           </cell>
-          <cell r="G37"/>
         </row>
         <row r="38">
           <cell r="B38">
@@ -2454,7 +2436,6 @@
           <cell r="F38">
             <v>10504462.043756034</v>
           </cell>
-          <cell r="G38"/>
         </row>
         <row r="39">
           <cell r="B39">
@@ -2472,7 +2453,6 @@
           <cell r="F39">
             <v>9976420.3750693332</v>
           </cell>
-          <cell r="G39"/>
         </row>
         <row r="40">
           <cell r="B40">
@@ -2490,7 +2470,6 @@
           <cell r="F40">
             <v>10180688.84361398</v>
           </cell>
-          <cell r="G40"/>
         </row>
         <row r="41">
           <cell r="B41">
@@ -2508,7 +2487,6 @@
           <cell r="F41">
             <v>9766731.7114344835</v>
           </cell>
-          <cell r="G41"/>
         </row>
       </sheetData>
       <sheetData sheetId="1">
@@ -2541,7 +2519,7 @@
             <v>UK</v>
           </cell>
           <cell r="J2" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="3">
@@ -2573,7 +2551,7 @@
             <v>UK</v>
           </cell>
           <cell r="J3" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="4">
@@ -2605,7 +2583,7 @@
             <v>UK</v>
           </cell>
           <cell r="J4" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="5">
@@ -2637,7 +2615,7 @@
             <v>UK</v>
           </cell>
           <cell r="J5" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="6">
@@ -2669,7 +2647,7 @@
             <v>UK</v>
           </cell>
           <cell r="J6" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="7">
@@ -2701,7 +2679,7 @@
             <v>UK</v>
           </cell>
           <cell r="J7" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="8">
@@ -2733,7 +2711,7 @@
             <v>UK</v>
           </cell>
           <cell r="J8" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="9">
@@ -2765,7 +2743,7 @@
             <v>UK</v>
           </cell>
           <cell r="J9" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="10">
@@ -2797,7 +2775,7 @@
             <v>UK</v>
           </cell>
           <cell r="J10" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="11">
@@ -2829,7 +2807,7 @@
             <v>UK</v>
           </cell>
           <cell r="J11" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="12">
@@ -2861,7 +2839,7 @@
             <v>UK</v>
           </cell>
           <cell r="J12" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="13">
@@ -2893,7 +2871,7 @@
             <v>UK</v>
           </cell>
           <cell r="J13" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="14">
@@ -2925,7 +2903,7 @@
             <v>UK</v>
           </cell>
           <cell r="J14" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="15">
@@ -2957,7 +2935,7 @@
             <v>UK</v>
           </cell>
           <cell r="J15" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="16">
@@ -2989,7 +2967,7 @@
             <v>UK</v>
           </cell>
           <cell r="J16" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="17">
@@ -3021,7 +2999,7 @@
             <v>UK</v>
           </cell>
           <cell r="J17" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="18">
@@ -3053,7 +3031,7 @@
             <v>UK</v>
           </cell>
           <cell r="J18" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="19">
@@ -3085,7 +3063,7 @@
             <v>UK</v>
           </cell>
           <cell r="J19" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="20">
@@ -3117,7 +3095,7 @@
             <v>UK</v>
           </cell>
           <cell r="J20" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="21">
@@ -3149,7 +3127,7 @@
             <v>UK</v>
           </cell>
           <cell r="J21" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="22">
@@ -3181,7 +3159,7 @@
             <v>UK</v>
           </cell>
           <cell r="J22" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="23">
@@ -3213,7 +3191,7 @@
             <v>UK</v>
           </cell>
           <cell r="J23" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="24">
@@ -3245,7 +3223,7 @@
             <v>UK</v>
           </cell>
           <cell r="J24" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="25">
@@ -3277,7 +3255,7 @@
             <v>UK</v>
           </cell>
           <cell r="J25" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="26">
@@ -3309,7 +3287,7 @@
             <v>UK</v>
           </cell>
           <cell r="J26" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="27">
@@ -3341,7 +3319,7 @@
             <v>UK</v>
           </cell>
           <cell r="J27" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="28">
@@ -3373,7 +3351,7 @@
             <v>UK</v>
           </cell>
           <cell r="J28" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="29">
@@ -3405,7 +3383,7 @@
             <v>UK</v>
           </cell>
           <cell r="J29" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="30">
@@ -3437,7 +3415,7 @@
             <v>UK</v>
           </cell>
           <cell r="J30" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="31">
@@ -3469,7 +3447,7 @@
             <v>UK</v>
           </cell>
           <cell r="J31" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="32">
@@ -3501,7 +3479,7 @@
             <v>UK</v>
           </cell>
           <cell r="J32" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="33">
@@ -3533,19 +3511,19 @@
             <v>UK</v>
           </cell>
           <cell r="J33" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="7" refreshError="1"/>
       <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4004,7 +3982,6 @@
           <cell r="F31">
             <v>25184117.816366058</v>
           </cell>
-          <cell r="G31"/>
         </row>
         <row r="32">
           <cell r="B32">
@@ -4022,7 +3999,6 @@
           <cell r="F32">
             <v>25163795.506071128</v>
           </cell>
-          <cell r="G32"/>
         </row>
         <row r="33">
           <cell r="B33">
@@ -4040,7 +4016,6 @@
           <cell r="F33">
             <v>25200192.425477788</v>
           </cell>
-          <cell r="G33"/>
         </row>
         <row r="34">
           <cell r="B34">
@@ -4058,7 +4033,6 @@
           <cell r="F34">
             <v>25748271.828353293</v>
           </cell>
-          <cell r="G34"/>
         </row>
         <row r="35">
           <cell r="B35">
@@ -4076,7 +4050,6 @@
           <cell r="F35">
             <v>25843432.07801234</v>
           </cell>
-          <cell r="G35"/>
         </row>
         <row r="36">
           <cell r="B36">
@@ -4094,7 +4067,6 @@
           <cell r="F36">
             <v>26094165.337369882</v>
           </cell>
-          <cell r="G36"/>
         </row>
         <row r="37">
           <cell r="B37">
@@ -4112,7 +4084,6 @@
           <cell r="F37">
             <v>25797612.808029119</v>
           </cell>
-          <cell r="G37"/>
         </row>
         <row r="38">
           <cell r="B38">
@@ -4130,7 +4101,6 @@
           <cell r="F38">
             <v>24958278.305098619</v>
           </cell>
-          <cell r="G38"/>
         </row>
         <row r="39">
           <cell r="B39">
@@ -4148,7 +4118,6 @@
           <cell r="F39">
             <v>23704000.430368986</v>
           </cell>
-          <cell r="G39"/>
         </row>
         <row r="40">
           <cell r="B40">
@@ -4166,7 +4135,6 @@
           <cell r="F40">
             <v>24851825.69568916</v>
           </cell>
-          <cell r="G40"/>
         </row>
         <row r="41">
           <cell r="B41">
@@ -4184,7 +4152,6 @@
           <cell r="F41">
             <v>23982179.061521243</v>
           </cell>
-          <cell r="G41"/>
         </row>
       </sheetData>
       <sheetData sheetId="1">
@@ -4217,7 +4184,7 @@
             <v>JP</v>
           </cell>
           <cell r="J2" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="3">
@@ -4249,7 +4216,7 @@
             <v>JP</v>
           </cell>
           <cell r="J3" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="4">
@@ -4281,7 +4248,7 @@
             <v>JP</v>
           </cell>
           <cell r="J4" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="5">
@@ -4313,7 +4280,7 @@
             <v>JP</v>
           </cell>
           <cell r="J5" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="6">
@@ -4345,7 +4312,7 @@
             <v>JP</v>
           </cell>
           <cell r="J6" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="7">
@@ -4377,7 +4344,7 @@
             <v>JP</v>
           </cell>
           <cell r="J7" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="8">
@@ -4409,7 +4376,7 @@
             <v>JP</v>
           </cell>
           <cell r="J8" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="9">
@@ -4441,7 +4408,7 @@
             <v>JP</v>
           </cell>
           <cell r="J9" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="10">
@@ -4473,7 +4440,7 @@
             <v>JP</v>
           </cell>
           <cell r="J10" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="11">
@@ -4505,7 +4472,7 @@
             <v>JP</v>
           </cell>
           <cell r="J11" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="12">
@@ -4537,7 +4504,7 @@
             <v>JP</v>
           </cell>
           <cell r="J12" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="13">
@@ -4569,7 +4536,7 @@
             <v>JP</v>
           </cell>
           <cell r="J13" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="14">
@@ -4601,7 +4568,7 @@
             <v>JP</v>
           </cell>
           <cell r="J14" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="15">
@@ -4633,7 +4600,7 @@
             <v>JP</v>
           </cell>
           <cell r="J15" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="16">
@@ -4665,7 +4632,7 @@
             <v>JP</v>
           </cell>
           <cell r="J16" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="17">
@@ -4697,7 +4664,7 @@
             <v>JP</v>
           </cell>
           <cell r="J17" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="18">
@@ -4729,7 +4696,7 @@
             <v>JP</v>
           </cell>
           <cell r="J18" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="19">
@@ -4761,7 +4728,7 @@
             <v>JP</v>
           </cell>
           <cell r="J19" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="20">
@@ -4793,7 +4760,7 @@
             <v>JP</v>
           </cell>
           <cell r="J20" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="21">
@@ -4825,7 +4792,7 @@
             <v>JP</v>
           </cell>
           <cell r="J21" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="22">
@@ -4857,7 +4824,7 @@
             <v>JP</v>
           </cell>
           <cell r="J22" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="23">
@@ -4889,7 +4856,7 @@
             <v>JP</v>
           </cell>
           <cell r="J23" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="24">
@@ -4921,7 +4888,7 @@
             <v>JP</v>
           </cell>
           <cell r="J24" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="25">
@@ -4953,7 +4920,7 @@
             <v>JP</v>
           </cell>
           <cell r="J25" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="26">
@@ -4985,7 +4952,7 @@
             <v>JP</v>
           </cell>
           <cell r="J26" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="27">
@@ -5017,7 +4984,7 @@
             <v>JP</v>
           </cell>
           <cell r="J27" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="28">
@@ -5049,7 +5016,7 @@
             <v>JP</v>
           </cell>
           <cell r="J28" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="29">
@@ -5081,7 +5048,7 @@
             <v>JP</v>
           </cell>
           <cell r="J29" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="30">
@@ -5113,7 +5080,7 @@
             <v>JP</v>
           </cell>
           <cell r="J30" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="31">
@@ -5145,7 +5112,7 @@
             <v>JP</v>
           </cell>
           <cell r="J31" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="32">
@@ -5177,7 +5144,7 @@
             <v>JP</v>
           </cell>
           <cell r="J32" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="33">
@@ -5209,18 +5176,18 @@
             <v>JP</v>
           </cell>
           <cell r="J33" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="7" refreshError="1"/>
       <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5626,7 +5593,7 @@
             <v>CN</v>
           </cell>
           <cell r="J2" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="3">
@@ -5658,7 +5625,7 @@
             <v>CN</v>
           </cell>
           <cell r="J3" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="4">
@@ -5690,7 +5657,7 @@
             <v>CN</v>
           </cell>
           <cell r="J4" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="5">
@@ -5722,7 +5689,7 @@
             <v>CN</v>
           </cell>
           <cell r="J5" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="6">
@@ -5754,7 +5721,7 @@
             <v>CN</v>
           </cell>
           <cell r="J6" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="7">
@@ -5786,7 +5753,7 @@
             <v>CN</v>
           </cell>
           <cell r="J7" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="8">
@@ -5818,7 +5785,7 @@
             <v>CN</v>
           </cell>
           <cell r="J8" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="9">
@@ -5850,7 +5817,7 @@
             <v>CN</v>
           </cell>
           <cell r="J9" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="10">
@@ -5882,7 +5849,7 @@
             <v>CN</v>
           </cell>
           <cell r="J10" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="11">
@@ -5914,7 +5881,7 @@
             <v>CN</v>
           </cell>
           <cell r="J11" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="12">
@@ -5946,7 +5913,7 @@
             <v>CN</v>
           </cell>
           <cell r="J12" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="13">
@@ -5978,7 +5945,7 @@
             <v>CN</v>
           </cell>
           <cell r="J13" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="14">
@@ -6010,7 +5977,7 @@
             <v>CN</v>
           </cell>
           <cell r="J14" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="15">
@@ -6042,7 +6009,7 @@
             <v>CN</v>
           </cell>
           <cell r="J15" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="16">
@@ -6074,7 +6041,7 @@
             <v>CN</v>
           </cell>
           <cell r="J16" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="17">
@@ -6106,7 +6073,7 @@
             <v>CN</v>
           </cell>
           <cell r="J17" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="18">
@@ -6138,7 +6105,7 @@
             <v>CN</v>
           </cell>
           <cell r="J18" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="19">
@@ -6170,7 +6137,7 @@
             <v>CN</v>
           </cell>
           <cell r="J19" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="20">
@@ -6202,7 +6169,7 @@
             <v>CN</v>
           </cell>
           <cell r="J20" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="21">
@@ -6234,7 +6201,7 @@
             <v>CN</v>
           </cell>
           <cell r="J21" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="22">
@@ -6266,13 +6233,13 @@
             <v>CN</v>
           </cell>
           <cell r="J22" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6678,7 +6645,7 @@
             <v>ZA</v>
           </cell>
           <cell r="J2" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="3">
@@ -6710,7 +6677,7 @@
             <v>ZA</v>
           </cell>
           <cell r="J3" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="4">
@@ -6742,7 +6709,7 @@
             <v>ZA</v>
           </cell>
           <cell r="J4" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="5">
@@ -6774,7 +6741,7 @@
             <v>ZA</v>
           </cell>
           <cell r="J5" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="6">
@@ -6806,7 +6773,7 @@
             <v>ZA</v>
           </cell>
           <cell r="J6" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="7">
@@ -6838,7 +6805,7 @@
             <v>ZA</v>
           </cell>
           <cell r="J7" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="8">
@@ -6870,7 +6837,7 @@
             <v>ZA</v>
           </cell>
           <cell r="J8" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="9">
@@ -6902,7 +6869,7 @@
             <v>ZA</v>
           </cell>
           <cell r="J9" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="10">
@@ -6934,7 +6901,7 @@
             <v>ZA</v>
           </cell>
           <cell r="J10" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="11">
@@ -6966,7 +6933,7 @@
             <v>ZA</v>
           </cell>
           <cell r="J11" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="12">
@@ -6998,7 +6965,7 @@
             <v>ZA</v>
           </cell>
           <cell r="J12" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="13">
@@ -7030,7 +6997,7 @@
             <v>ZA</v>
           </cell>
           <cell r="J13" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="14">
@@ -7062,7 +7029,7 @@
             <v>ZA</v>
           </cell>
           <cell r="J14" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="15">
@@ -7094,7 +7061,7 @@
             <v>ZA</v>
           </cell>
           <cell r="J15" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="16">
@@ -7126,7 +7093,7 @@
             <v>ZA</v>
           </cell>
           <cell r="J16" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="17">
@@ -7158,7 +7125,7 @@
             <v>ZA</v>
           </cell>
           <cell r="J17" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="18">
@@ -7190,7 +7157,7 @@
             <v>ZA</v>
           </cell>
           <cell r="J18" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="19">
@@ -7222,7 +7189,7 @@
             <v>ZA</v>
           </cell>
           <cell r="J19" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="20">
@@ -7254,7 +7221,7 @@
             <v>ZA</v>
           </cell>
           <cell r="J20" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="21">
@@ -7286,7 +7253,7 @@
             <v>ZA</v>
           </cell>
           <cell r="J21" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="22">
@@ -7318,13 +7285,13 @@
             <v>ZA</v>
           </cell>
           <cell r="J22" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7730,7 +7697,7 @@
             <v>SA</v>
           </cell>
           <cell r="J2" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="3">
@@ -7762,7 +7729,7 @@
             <v>SA</v>
           </cell>
           <cell r="J3" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="4">
@@ -7794,7 +7761,7 @@
             <v>SA</v>
           </cell>
           <cell r="J4" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="5">
@@ -7826,7 +7793,7 @@
             <v>SA</v>
           </cell>
           <cell r="J5" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="6">
@@ -7858,7 +7825,7 @@
             <v>SA</v>
           </cell>
           <cell r="J6" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="7">
@@ -7890,7 +7857,7 @@
             <v>SA</v>
           </cell>
           <cell r="J7" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="8">
@@ -7922,7 +7889,7 @@
             <v>SA</v>
           </cell>
           <cell r="J8" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="9">
@@ -7954,7 +7921,7 @@
             <v>SA</v>
           </cell>
           <cell r="J9" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="10">
@@ -7986,7 +7953,7 @@
             <v>SA</v>
           </cell>
           <cell r="J10" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="11">
@@ -8018,7 +7985,7 @@
             <v>SA</v>
           </cell>
           <cell r="J11" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="12">
@@ -8050,7 +8017,7 @@
             <v>SA</v>
           </cell>
           <cell r="J12" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="13">
@@ -8082,7 +8049,7 @@
             <v>SA</v>
           </cell>
           <cell r="J13" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="14">
@@ -8114,7 +8081,7 @@
             <v>SA</v>
           </cell>
           <cell r="J14" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="15">
@@ -8146,7 +8113,7 @@
             <v>SA</v>
           </cell>
           <cell r="J15" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="16">
@@ -8178,7 +8145,7 @@
             <v>SA</v>
           </cell>
           <cell r="J16" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="17">
@@ -8210,7 +8177,7 @@
             <v>SA</v>
           </cell>
           <cell r="J17" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="18">
@@ -8242,7 +8209,7 @@
             <v>SA</v>
           </cell>
           <cell r="J18" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="19">
@@ -8274,7 +8241,7 @@
             <v>SA</v>
           </cell>
           <cell r="J19" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="20">
@@ -8306,7 +8273,7 @@
             <v>SA</v>
           </cell>
           <cell r="J20" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="21">
@@ -8338,7 +8305,7 @@
             <v>SA</v>
           </cell>
           <cell r="J21" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="22">
@@ -8370,13 +8337,13 @@
             <v>SA</v>
           </cell>
           <cell r="J22" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -8782,7 +8749,7 @@
             <v>IR</v>
           </cell>
           <cell r="J2" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="3">
@@ -8814,7 +8781,7 @@
             <v>IR</v>
           </cell>
           <cell r="J3" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="4">
@@ -8846,7 +8813,7 @@
             <v>IR</v>
           </cell>
           <cell r="J4" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="5">
@@ -8878,7 +8845,7 @@
             <v>IR</v>
           </cell>
           <cell r="J5" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="6">
@@ -8910,7 +8877,7 @@
             <v>IR</v>
           </cell>
           <cell r="J6" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="7">
@@ -8942,7 +8909,7 @@
             <v>IR</v>
           </cell>
           <cell r="J7" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="8">
@@ -8974,7 +8941,7 @@
             <v>IR</v>
           </cell>
           <cell r="J8" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="9">
@@ -9006,7 +8973,7 @@
             <v>IR</v>
           </cell>
           <cell r="J9" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="10">
@@ -9038,7 +9005,7 @@
             <v>IR</v>
           </cell>
           <cell r="J10" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="11">
@@ -9070,7 +9037,7 @@
             <v>IR</v>
           </cell>
           <cell r="J11" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="12">
@@ -9102,7 +9069,7 @@
             <v>IR</v>
           </cell>
           <cell r="J12" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="13">
@@ -9134,7 +9101,7 @@
             <v>IR</v>
           </cell>
           <cell r="J13" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="14">
@@ -9166,7 +9133,7 @@
             <v>IR</v>
           </cell>
           <cell r="J14" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="15">
@@ -9198,7 +9165,7 @@
             <v>IR</v>
           </cell>
           <cell r="J15" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="16">
@@ -9230,7 +9197,7 @@
             <v>IR</v>
           </cell>
           <cell r="J16" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="17">
@@ -9262,7 +9229,7 @@
             <v>IR</v>
           </cell>
           <cell r="J17" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="18">
@@ -9294,7 +9261,7 @@
             <v>IR</v>
           </cell>
           <cell r="J18" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="19">
@@ -9326,7 +9293,7 @@
             <v>IR</v>
           </cell>
           <cell r="J19" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="20">
@@ -9358,7 +9325,7 @@
             <v>IR</v>
           </cell>
           <cell r="J20" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="21">
@@ -9390,7 +9357,7 @@
             <v>IR</v>
           </cell>
           <cell r="J21" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="22">
@@ -9422,13 +9389,13 @@
             <v>IR</v>
           </cell>
           <cell r="J22" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -9834,7 +9801,7 @@
             <v>TZ</v>
           </cell>
           <cell r="J2" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="3">
@@ -9866,7 +9833,7 @@
             <v>TZ</v>
           </cell>
           <cell r="J3" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="4">
@@ -9898,7 +9865,7 @@
             <v>TZ</v>
           </cell>
           <cell r="J4" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="5">
@@ -9930,7 +9897,7 @@
             <v>TZ</v>
           </cell>
           <cell r="J5" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="6">
@@ -9962,7 +9929,7 @@
             <v>TZ</v>
           </cell>
           <cell r="J6" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="7">
@@ -9994,7 +9961,7 @@
             <v>TZ</v>
           </cell>
           <cell r="J7" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="8">
@@ -10026,7 +9993,7 @@
             <v>TZ</v>
           </cell>
           <cell r="J8" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="9">
@@ -10058,7 +10025,7 @@
             <v>TZ</v>
           </cell>
           <cell r="J9" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="10">
@@ -10090,7 +10057,7 @@
             <v>TZ</v>
           </cell>
           <cell r="J10" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="11">
@@ -10122,7 +10089,7 @@
             <v>TZ</v>
           </cell>
           <cell r="J11" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="12">
@@ -10154,7 +10121,7 @@
             <v>TZ</v>
           </cell>
           <cell r="J12" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="13">
@@ -10186,7 +10153,7 @@
             <v>TZ</v>
           </cell>
           <cell r="J13" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="14">
@@ -10218,7 +10185,7 @@
             <v>TZ</v>
           </cell>
           <cell r="J14" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="15">
@@ -10250,7 +10217,7 @@
             <v>TZ</v>
           </cell>
           <cell r="J15" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="16">
@@ -10282,7 +10249,7 @@
             <v>TZ</v>
           </cell>
           <cell r="J16" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="17">
@@ -10314,7 +10281,7 @@
             <v>TZ</v>
           </cell>
           <cell r="J17" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="18">
@@ -10346,7 +10313,7 @@
             <v>TZ</v>
           </cell>
           <cell r="J18" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="19">
@@ -10378,7 +10345,7 @@
             <v>TZ</v>
           </cell>
           <cell r="J19" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="20">
@@ -10410,7 +10377,7 @@
             <v>TZ</v>
           </cell>
           <cell r="J20" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="21">
@@ -10442,7 +10409,7 @@
             <v>TZ</v>
           </cell>
           <cell r="J21" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="22">
@@ -10474,13 +10441,13 @@
             <v>TZ</v>
           </cell>
           <cell r="J22" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10886,7 +10853,7 @@
             <v>ZM</v>
           </cell>
           <cell r="J2" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="3">
@@ -10918,7 +10885,7 @@
             <v>ZM</v>
           </cell>
           <cell r="J3" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="4">
@@ -10950,7 +10917,7 @@
             <v>ZM</v>
           </cell>
           <cell r="J4" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="5">
@@ -10982,7 +10949,7 @@
             <v>ZM</v>
           </cell>
           <cell r="J5" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="6">
@@ -11014,7 +10981,7 @@
             <v>ZM</v>
           </cell>
           <cell r="J6" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="7">
@@ -11046,7 +11013,7 @@
             <v>ZM</v>
           </cell>
           <cell r="J7" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="8">
@@ -11078,7 +11045,7 @@
             <v>ZM</v>
           </cell>
           <cell r="J8" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="9">
@@ -11110,7 +11077,7 @@
             <v>ZM</v>
           </cell>
           <cell r="J9" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="10">
@@ -11142,7 +11109,7 @@
             <v>ZM</v>
           </cell>
           <cell r="J10" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="11">
@@ -11174,7 +11141,7 @@
             <v>ZM</v>
           </cell>
           <cell r="J11" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="12">
@@ -11206,7 +11173,7 @@
             <v>ZM</v>
           </cell>
           <cell r="J12" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="13">
@@ -11238,7 +11205,7 @@
             <v>ZM</v>
           </cell>
           <cell r="J13" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="14">
@@ -11270,7 +11237,7 @@
             <v>ZM</v>
           </cell>
           <cell r="J14" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="15">
@@ -11302,7 +11269,7 @@
             <v>ZM</v>
           </cell>
           <cell r="J15" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="16">
@@ -11334,7 +11301,7 @@
             <v>ZM</v>
           </cell>
           <cell r="J16" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="17">
@@ -11366,7 +11333,7 @@
             <v>ZM</v>
           </cell>
           <cell r="J17" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="18">
@@ -11398,7 +11365,7 @@
             <v>ZM</v>
           </cell>
           <cell r="J18" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="19">
@@ -11430,7 +11397,7 @@
             <v>ZM</v>
           </cell>
           <cell r="J19" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="20">
@@ -11462,7 +11429,7 @@
             <v>ZM</v>
           </cell>
           <cell r="J20" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="21">
@@ -11494,7 +11461,7 @@
             <v>ZM</v>
           </cell>
           <cell r="J21" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
         <row r="22">
@@ -11526,13 +11493,13 @@
             <v>ZM</v>
           </cell>
           <cell r="J22" t="str">
-            <v>Calvin2011</v>
+            <v>Calvin</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -11862,7 +11829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2360" activePane="bottomLeft"/>
       <selection activeCell="I1" sqref="I1:I1048576"/>
       <selection pane="bottomLeft" activeCell="I191" sqref="I191"/>
@@ -11950,7 +11917,7 @@
       </c>
       <c r="J2" s="1" t="str">
         <f>[1]USData!J2</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11992,7 +11959,7 @@
       </c>
       <c r="J3" s="1" t="str">
         <f>[1]USData!J3</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12034,7 +12001,7 @@
       </c>
       <c r="J4" s="1" t="str">
         <f>[1]USData!J4</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12076,7 +12043,7 @@
       </c>
       <c r="J5" s="1" t="str">
         <f>[1]USData!J5</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12118,7 +12085,7 @@
       </c>
       <c r="J6" s="1" t="str">
         <f>[1]USData!J6</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12160,7 +12127,7 @@
       </c>
       <c r="J7" s="1" t="str">
         <f>[1]USData!J7</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12202,7 +12169,7 @@
       </c>
       <c r="J8" s="1" t="str">
         <f>[1]USData!J8</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12244,7 +12211,7 @@
       </c>
       <c r="J9" s="1" t="str">
         <f>[1]USData!J9</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12286,7 +12253,7 @@
       </c>
       <c r="J10" s="1" t="str">
         <f>[1]USData!J10</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12328,7 +12295,7 @@
       </c>
       <c r="J11" s="1" t="str">
         <f>[1]USData!J11</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12370,7 +12337,7 @@
       </c>
       <c r="J12" s="1" t="str">
         <f>[1]USData!J12</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12412,7 +12379,7 @@
       </c>
       <c r="J13" s="1" t="str">
         <f>[1]USData!J13</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12454,7 +12421,7 @@
       </c>
       <c r="J14" s="1" t="str">
         <f>[1]USData!J14</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12496,7 +12463,7 @@
       </c>
       <c r="J15" s="1" t="str">
         <f>[1]USData!J15</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12538,7 +12505,7 @@
       </c>
       <c r="J16" s="1" t="str">
         <f>[1]USData!J16</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12580,7 +12547,7 @@
       </c>
       <c r="J17" s="1" t="str">
         <f>[1]USData!J17</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12622,7 +12589,7 @@
       </c>
       <c r="J18" s="1" t="str">
         <f>[1]USData!J18</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12664,7 +12631,7 @@
       </c>
       <c r="J19" s="1" t="str">
         <f>[1]USData!J19</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -12706,7 +12673,7 @@
       </c>
       <c r="J20" s="1" t="str">
         <f>[1]USData!J20</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -12748,7 +12715,7 @@
       </c>
       <c r="J21" s="1" t="str">
         <f>[1]USData!J21</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -12790,7 +12757,7 @@
       </c>
       <c r="J22" s="1" t="str">
         <f>[1]USData!J22</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -12832,7 +12799,7 @@
       </c>
       <c r="J23" s="1" t="str">
         <f>[1]USData!J23</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -12874,7 +12841,7 @@
       </c>
       <c r="J24" s="1" t="str">
         <f>[1]USData!J24</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -12916,7 +12883,7 @@
       </c>
       <c r="J25" s="1" t="str">
         <f>[1]USData!J25</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -12958,7 +12925,7 @@
       </c>
       <c r="J26" s="1" t="str">
         <f>[1]USData!J26</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -13000,7 +12967,7 @@
       </c>
       <c r="J27" s="1" t="str">
         <f>[1]USData!J27</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -13042,7 +13009,7 @@
       </c>
       <c r="J28" s="1" t="str">
         <f>[1]USData!J28</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -13084,7 +13051,7 @@
       </c>
       <c r="J29" s="1" t="str">
         <f>[1]USData!J29</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -13126,7 +13093,7 @@
       </c>
       <c r="J30" s="1" t="str">
         <f>[1]USData!J30</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -13168,7 +13135,7 @@
       </c>
       <c r="J31" s="1" t="str">
         <f>[1]USData!J31</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -13210,7 +13177,7 @@
       </c>
       <c r="J32" s="1" t="str">
         <f>[1]USData!J32</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -13252,7 +13219,7 @@
       </c>
       <c r="J33" s="1" t="str">
         <f>[1]USData!J33</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -13294,7 +13261,7 @@
       </c>
       <c r="J34" s="1" t="str">
         <f>[2]UKData!J2</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -13336,7 +13303,7 @@
       </c>
       <c r="J35" s="1" t="str">
         <f>[2]UKData!J3</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -13378,7 +13345,7 @@
       </c>
       <c r="J36" s="1" t="str">
         <f>[2]UKData!J4</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -13420,7 +13387,7 @@
       </c>
       <c r="J37" s="1" t="str">
         <f>[2]UKData!J5</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -13462,7 +13429,7 @@
       </c>
       <c r="J38" s="1" t="str">
         <f>[2]UKData!J6</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -13504,7 +13471,7 @@
       </c>
       <c r="J39" s="1" t="str">
         <f>[2]UKData!J7</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -13546,7 +13513,7 @@
       </c>
       <c r="J40" s="1" t="str">
         <f>[2]UKData!J8</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -13588,7 +13555,7 @@
       </c>
       <c r="J41" s="1" t="str">
         <f>[2]UKData!J9</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -13630,7 +13597,7 @@
       </c>
       <c r="J42" s="1" t="str">
         <f>[2]UKData!J10</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -13672,7 +13639,7 @@
       </c>
       <c r="J43" s="1" t="str">
         <f>[2]UKData!J11</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -13714,7 +13681,7 @@
       </c>
       <c r="J44" s="1" t="str">
         <f>[2]UKData!J12</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -13756,7 +13723,7 @@
       </c>
       <c r="J45" s="1" t="str">
         <f>[2]UKData!J13</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -13798,7 +13765,7 @@
       </c>
       <c r="J46" s="1" t="str">
         <f>[2]UKData!J14</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -13840,7 +13807,7 @@
       </c>
       <c r="J47" s="1" t="str">
         <f>[2]UKData!J15</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -13882,7 +13849,7 @@
       </c>
       <c r="J48" s="1" t="str">
         <f>[2]UKData!J16</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -13924,7 +13891,7 @@
       </c>
       <c r="J49" s="1" t="str">
         <f>[2]UKData!J17</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -13966,7 +13933,7 @@
       </c>
       <c r="J50" s="1" t="str">
         <f>[2]UKData!J18</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -14008,7 +13975,7 @@
       </c>
       <c r="J51" s="1" t="str">
         <f>[2]UKData!J19</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -14050,7 +14017,7 @@
       </c>
       <c r="J52" s="1" t="str">
         <f>[2]UKData!J20</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -14092,7 +14059,7 @@
       </c>
       <c r="J53" s="1" t="str">
         <f>[2]UKData!J21</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -14134,7 +14101,7 @@
       </c>
       <c r="J54" s="1" t="str">
         <f>[2]UKData!J22</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -14176,7 +14143,7 @@
       </c>
       <c r="J55" s="1" t="str">
         <f>[2]UKData!J23</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -14218,7 +14185,7 @@
       </c>
       <c r="J56" s="1" t="str">
         <f>[2]UKData!J24</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -14260,7 +14227,7 @@
       </c>
       <c r="J57" s="1" t="str">
         <f>[2]UKData!J25</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -14302,7 +14269,7 @@
       </c>
       <c r="J58" s="1" t="str">
         <f>[2]UKData!J26</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -14344,7 +14311,7 @@
       </c>
       <c r="J59" s="1" t="str">
         <f>[2]UKData!J27</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -14386,7 +14353,7 @@
       </c>
       <c r="J60" s="1" t="str">
         <f>[2]UKData!J28</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -14428,7 +14395,7 @@
       </c>
       <c r="J61" s="1" t="str">
         <f>[2]UKData!J29</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -14470,7 +14437,7 @@
       </c>
       <c r="J62" s="1" t="str">
         <f>[2]UKData!J30</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -14512,7 +14479,7 @@
       </c>
       <c r="J63" s="1" t="str">
         <f>[2]UKData!J31</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -14554,7 +14521,7 @@
       </c>
       <c r="J64" s="1" t="str">
         <f>[2]UKData!J32</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -14596,7 +14563,7 @@
       </c>
       <c r="J65" s="1" t="str">
         <f>[2]UKData!J33</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -14638,7 +14605,7 @@
       </c>
       <c r="J66" s="1" t="str">
         <f>[3]JPData!J2</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -14680,7 +14647,7 @@
       </c>
       <c r="J67" s="1" t="str">
         <f>[3]JPData!J3</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -14722,7 +14689,7 @@
       </c>
       <c r="J68" s="1" t="str">
         <f>[3]JPData!J4</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -14764,7 +14731,7 @@
       </c>
       <c r="J69" s="1" t="str">
         <f>[3]JPData!J5</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -14806,7 +14773,7 @@
       </c>
       <c r="J70" s="1" t="str">
         <f>[3]JPData!J6</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -14848,7 +14815,7 @@
       </c>
       <c r="J71" s="1" t="str">
         <f>[3]JPData!J7</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -14890,7 +14857,7 @@
       </c>
       <c r="J72" s="1" t="str">
         <f>[3]JPData!J8</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -14932,7 +14899,7 @@
       </c>
       <c r="J73" s="1" t="str">
         <f>[3]JPData!J9</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -14974,7 +14941,7 @@
       </c>
       <c r="J74" s="1" t="str">
         <f>[3]JPData!J10</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -15016,7 +14983,7 @@
       </c>
       <c r="J75" s="1" t="str">
         <f>[3]JPData!J11</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -15058,7 +15025,7 @@
       </c>
       <c r="J76" s="1" t="str">
         <f>[3]JPData!J12</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -15100,7 +15067,7 @@
       </c>
       <c r="J77" s="1" t="str">
         <f>[3]JPData!J13</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -15142,7 +15109,7 @@
       </c>
       <c r="J78" s="1" t="str">
         <f>[3]JPData!J14</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -15184,7 +15151,7 @@
       </c>
       <c r="J79" s="1" t="str">
         <f>[3]JPData!J15</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -15226,7 +15193,7 @@
       </c>
       <c r="J80" s="1" t="str">
         <f>[3]JPData!J16</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -15268,7 +15235,7 @@
       </c>
       <c r="J81" s="1" t="str">
         <f>[3]JPData!J17</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -15310,7 +15277,7 @@
       </c>
       <c r="J82" s="1" t="str">
         <f>[3]JPData!J18</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -15352,7 +15319,7 @@
       </c>
       <c r="J83" s="1" t="str">
         <f>[3]JPData!J19</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -15394,7 +15361,7 @@
       </c>
       <c r="J84" s="1" t="str">
         <f>[3]JPData!J20</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -15436,7 +15403,7 @@
       </c>
       <c r="J85" s="1" t="str">
         <f>[3]JPData!J21</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -15478,7 +15445,7 @@
       </c>
       <c r="J86" s="1" t="str">
         <f>[3]JPData!J22</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -15520,7 +15487,7 @@
       </c>
       <c r="J87" s="1" t="str">
         <f>[3]JPData!J23</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -15562,7 +15529,7 @@
       </c>
       <c r="J88" s="1" t="str">
         <f>[3]JPData!J24</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -15604,7 +15571,7 @@
       </c>
       <c r="J89" s="1" t="str">
         <f>[3]JPData!J25</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -15646,7 +15613,7 @@
       </c>
       <c r="J90" s="1" t="str">
         <f>[3]JPData!J26</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -15688,7 +15655,7 @@
       </c>
       <c r="J91" s="1" t="str">
         <f>[3]JPData!J27</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -15730,7 +15697,7 @@
       </c>
       <c r="J92" s="1" t="str">
         <f>[3]JPData!J28</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -15772,7 +15739,7 @@
       </c>
       <c r="J93" s="1" t="str">
         <f>[3]JPData!J29</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -15814,7 +15781,7 @@
       </c>
       <c r="J94" s="1" t="str">
         <f>[3]JPData!J30</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -15856,7 +15823,7 @@
       </c>
       <c r="J95" s="1" t="str">
         <f>[3]JPData!J31</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -15898,7 +15865,7 @@
       </c>
       <c r="J96" s="1" t="str">
         <f>[3]JPData!J32</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -15940,7 +15907,7 @@
       </c>
       <c r="J97" s="1" t="str">
         <f>[3]JPData!J33</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -15981,7 +15948,7 @@
       </c>
       <c r="J98" s="1" t="str">
         <f>[4]CNData!J2</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -16022,7 +15989,7 @@
       </c>
       <c r="J99" s="1" t="str">
         <f>[4]CNData!J3</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -16063,7 +16030,7 @@
       </c>
       <c r="J100" s="1" t="str">
         <f>[4]CNData!J4</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -16104,7 +16071,7 @@
       </c>
       <c r="J101" s="1" t="str">
         <f>[4]CNData!J5</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -16145,7 +16112,7 @@
       </c>
       <c r="J102" s="1" t="str">
         <f>[4]CNData!J6</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -16186,7 +16153,7 @@
       </c>
       <c r="J103" s="1" t="str">
         <f>[4]CNData!J7</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -16227,7 +16194,7 @@
       </c>
       <c r="J104" s="1" t="str">
         <f>[4]CNData!J8</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -16268,7 +16235,7 @@
       </c>
       <c r="J105" s="1" t="str">
         <f>[4]CNData!J9</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -16309,7 +16276,7 @@
       </c>
       <c r="J106" s="1" t="str">
         <f>[4]CNData!J10</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -16350,7 +16317,7 @@
       </c>
       <c r="J107" s="1" t="str">
         <f>[4]CNData!J11</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -16391,7 +16358,7 @@
       </c>
       <c r="J108" s="1" t="str">
         <f>[4]CNData!J12</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -16432,7 +16399,7 @@
       </c>
       <c r="J109" s="1" t="str">
         <f>[4]CNData!J13</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -16473,7 +16440,7 @@
       </c>
       <c r="J110" s="1" t="str">
         <f>[4]CNData!J14</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -16514,7 +16481,7 @@
       </c>
       <c r="J111" s="1" t="str">
         <f>[4]CNData!J15</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -16555,7 +16522,7 @@
       </c>
       <c r="J112" s="1" t="str">
         <f>[4]CNData!J16</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -16596,7 +16563,7 @@
       </c>
       <c r="J113" s="1" t="str">
         <f>[4]CNData!J17</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -16637,7 +16604,7 @@
       </c>
       <c r="J114" s="1" t="str">
         <f>[4]CNData!J18</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -16678,7 +16645,7 @@
       </c>
       <c r="J115" s="1" t="str">
         <f>[4]CNData!J19</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -16719,7 +16686,7 @@
       </c>
       <c r="J116" s="1" t="str">
         <f>[4]CNData!J20</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -16760,7 +16727,7 @@
       </c>
       <c r="J117" s="1" t="str">
         <f>[4]CNData!J21</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -16801,7 +16768,7 @@
       </c>
       <c r="J118" s="1" t="str">
         <f>[4]CNData!J22</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -16842,7 +16809,7 @@
       </c>
       <c r="J119" s="1" t="str">
         <f>[5]ZAData!J2</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -16883,7 +16850,7 @@
       </c>
       <c r="J120" s="1" t="str">
         <f>[5]ZAData!J3</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -16924,7 +16891,7 @@
       </c>
       <c r="J121" s="1" t="str">
         <f>[5]ZAData!J4</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -16965,7 +16932,7 @@
       </c>
       <c r="J122" s="1" t="str">
         <f>[5]ZAData!J5</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -17006,7 +16973,7 @@
       </c>
       <c r="J123" s="1" t="str">
         <f>[5]ZAData!J6</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -17047,7 +17014,7 @@
       </c>
       <c r="J124" s="1" t="str">
         <f>[5]ZAData!J7</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -17088,7 +17055,7 @@
       </c>
       <c r="J125" s="1" t="str">
         <f>[5]ZAData!J8</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -17129,7 +17096,7 @@
       </c>
       <c r="J126" s="1" t="str">
         <f>[5]ZAData!J9</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -17170,7 +17137,7 @@
       </c>
       <c r="J127" s="1" t="str">
         <f>[5]ZAData!J10</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -17211,7 +17178,7 @@
       </c>
       <c r="J128" s="1" t="str">
         <f>[5]ZAData!J11</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -17252,7 +17219,7 @@
       </c>
       <c r="J129" s="1" t="str">
         <f>[5]ZAData!J12</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -17293,7 +17260,7 @@
       </c>
       <c r="J130" s="1" t="str">
         <f>[5]ZAData!J13</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -17334,7 +17301,7 @@
       </c>
       <c r="J131" s="1" t="str">
         <f>[5]ZAData!J14</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -17375,7 +17342,7 @@
       </c>
       <c r="J132" s="1" t="str">
         <f>[5]ZAData!J15</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -17416,7 +17383,7 @@
       </c>
       <c r="J133" s="1" t="str">
         <f>[5]ZAData!J16</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -17457,7 +17424,7 @@
       </c>
       <c r="J134" s="1" t="str">
         <f>[5]ZAData!J17</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -17498,7 +17465,7 @@
       </c>
       <c r="J135" s="1" t="str">
         <f>[5]ZAData!J18</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -17539,7 +17506,7 @@
       </c>
       <c r="J136" s="1" t="str">
         <f>[5]ZAData!J19</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -17580,7 +17547,7 @@
       </c>
       <c r="J137" s="1" t="str">
         <f>[5]ZAData!J20</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -17621,7 +17588,7 @@
       </c>
       <c r="J138" s="1" t="str">
         <f>[5]ZAData!J21</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -17662,7 +17629,7 @@
       </c>
       <c r="J139" s="1" t="str">
         <f>[5]ZAData!J22</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -17703,7 +17670,7 @@
       </c>
       <c r="J140" s="1" t="str">
         <f>[6]SAData!J2</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -17744,7 +17711,7 @@
       </c>
       <c r="J141" s="1" t="str">
         <f>[6]SAData!J3</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -17785,7 +17752,7 @@
       </c>
       <c r="J142" s="1" t="str">
         <f>[6]SAData!J4</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -17826,7 +17793,7 @@
       </c>
       <c r="J143" s="1" t="str">
         <f>[6]SAData!J5</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -17867,7 +17834,7 @@
       </c>
       <c r="J144" s="1" t="str">
         <f>[6]SAData!J6</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -17908,7 +17875,7 @@
       </c>
       <c r="J145" s="1" t="str">
         <f>[6]SAData!J7</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -17949,7 +17916,7 @@
       </c>
       <c r="J146" s="1" t="str">
         <f>[6]SAData!J8</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -17990,7 +17957,7 @@
       </c>
       <c r="J147" s="1" t="str">
         <f>[6]SAData!J9</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -18031,7 +17998,7 @@
       </c>
       <c r="J148" s="1" t="str">
         <f>[6]SAData!J10</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -18072,7 +18039,7 @@
       </c>
       <c r="J149" s="1" t="str">
         <f>[6]SAData!J11</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -18113,7 +18080,7 @@
       </c>
       <c r="J150" s="1" t="str">
         <f>[6]SAData!J12</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -18154,7 +18121,7 @@
       </c>
       <c r="J151" s="1" t="str">
         <f>[6]SAData!J13</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -18195,7 +18162,7 @@
       </c>
       <c r="J152" s="1" t="str">
         <f>[6]SAData!J14</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -18236,7 +18203,7 @@
       </c>
       <c r="J153" s="1" t="str">
         <f>[6]SAData!J15</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -18277,7 +18244,7 @@
       </c>
       <c r="J154" s="1" t="str">
         <f>[6]SAData!J16</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -18318,7 +18285,7 @@
       </c>
       <c r="J155" s="1" t="str">
         <f>[6]SAData!J17</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -18359,7 +18326,7 @@
       </c>
       <c r="J156" s="1" t="str">
         <f>[6]SAData!J18</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -18400,7 +18367,7 @@
       </c>
       <c r="J157" s="1" t="str">
         <f>[6]SAData!J19</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -18441,7 +18408,7 @@
       </c>
       <c r="J158" s="1" t="str">
         <f>[6]SAData!J20</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -18482,7 +18449,7 @@
       </c>
       <c r="J159" s="1" t="str">
         <f>[6]SAData!J21</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -18523,7 +18490,7 @@
       </c>
       <c r="J160" s="1" t="str">
         <f>[6]SAData!J22</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -18564,7 +18531,7 @@
       </c>
       <c r="J161" s="1" t="str">
         <f>[7]IRData!J2</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -18605,7 +18572,7 @@
       </c>
       <c r="J162" s="1" t="str">
         <f>[7]IRData!J3</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -18646,7 +18613,7 @@
       </c>
       <c r="J163" s="1" t="str">
         <f>[7]IRData!J4</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -18687,7 +18654,7 @@
       </c>
       <c r="J164" s="1" t="str">
         <f>[7]IRData!J5</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -18728,7 +18695,7 @@
       </c>
       <c r="J165" s="1" t="str">
         <f>[7]IRData!J6</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -18769,7 +18736,7 @@
       </c>
       <c r="J166" s="1" t="str">
         <f>[7]IRData!J7</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -18810,7 +18777,7 @@
       </c>
       <c r="J167" s="1" t="str">
         <f>[7]IRData!J8</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -18851,7 +18818,7 @@
       </c>
       <c r="J168" s="1" t="str">
         <f>[7]IRData!J9</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -18892,7 +18859,7 @@
       </c>
       <c r="J169" s="1" t="str">
         <f>[7]IRData!J10</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -18933,7 +18900,7 @@
       </c>
       <c r="J170" s="1" t="str">
         <f>[7]IRData!J11</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -18974,7 +18941,7 @@
       </c>
       <c r="J171" s="1" t="str">
         <f>[7]IRData!J12</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -19015,7 +18982,7 @@
       </c>
       <c r="J172" s="1" t="str">
         <f>[7]IRData!J13</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -19056,7 +19023,7 @@
       </c>
       <c r="J173" s="1" t="str">
         <f>[7]IRData!J14</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -19097,7 +19064,7 @@
       </c>
       <c r="J174" s="1" t="str">
         <f>[7]IRData!J15</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -19138,7 +19105,7 @@
       </c>
       <c r="J175" s="1" t="str">
         <f>[7]IRData!J16</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -19179,7 +19146,7 @@
       </c>
       <c r="J176" s="1" t="str">
         <f>[7]IRData!J17</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -19220,7 +19187,7 @@
       </c>
       <c r="J177" s="1" t="str">
         <f>[7]IRData!J18</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -19261,7 +19228,7 @@
       </c>
       <c r="J178" s="1" t="str">
         <f>[7]IRData!J19</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -19302,7 +19269,7 @@
       </c>
       <c r="J179" s="1" t="str">
         <f>[7]IRData!J20</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -19343,7 +19310,7 @@
       </c>
       <c r="J180" s="1" t="str">
         <f>[7]IRData!J21</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -19384,7 +19351,7 @@
       </c>
       <c r="J181" s="1" t="str">
         <f>[7]IRData!J22</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -19425,7 +19392,7 @@
       </c>
       <c r="J182" s="1" t="str">
         <f>[8]TZData!J2</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -19466,7 +19433,7 @@
       </c>
       <c r="J183" s="1" t="str">
         <f>[8]TZData!J3</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -19507,7 +19474,7 @@
       </c>
       <c r="J184" s="1" t="str">
         <f>[8]TZData!J4</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -19548,7 +19515,7 @@
       </c>
       <c r="J185" s="1" t="str">
         <f>[8]TZData!J5</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -19589,7 +19556,7 @@
       </c>
       <c r="J186" s="1" t="str">
         <f>[8]TZData!J6</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -19630,7 +19597,7 @@
       </c>
       <c r="J187" s="1" t="str">
         <f>[8]TZData!J7</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -19671,7 +19638,7 @@
       </c>
       <c r="J188" s="1" t="str">
         <f>[8]TZData!J8</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="189" spans="1:10">
@@ -19712,7 +19679,7 @@
       </c>
       <c r="J189" s="1" t="str">
         <f>[8]TZData!J9</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -19753,7 +19720,7 @@
       </c>
       <c r="J190" s="1" t="str">
         <f>[8]TZData!J10</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -19794,7 +19761,7 @@
       </c>
       <c r="J191" s="1" t="str">
         <f>[8]TZData!J11</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -19835,7 +19802,7 @@
       </c>
       <c r="J192" s="1" t="str">
         <f>[8]TZData!J12</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -19876,7 +19843,7 @@
       </c>
       <c r="J193" s="1" t="str">
         <f>[8]TZData!J13</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -19917,7 +19884,7 @@
       </c>
       <c r="J194" s="1" t="str">
         <f>[8]TZData!J14</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -19958,7 +19925,7 @@
       </c>
       <c r="J195" s="1" t="str">
         <f>[8]TZData!J15</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -19999,7 +19966,7 @@
       </c>
       <c r="J196" s="1" t="str">
         <f>[8]TZData!J16</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -20040,7 +20007,7 @@
       </c>
       <c r="J197" s="1" t="str">
         <f>[8]TZData!J17</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -20081,7 +20048,7 @@
       </c>
       <c r="J198" s="1" t="str">
         <f>[8]TZData!J18</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -20122,7 +20089,7 @@
       </c>
       <c r="J199" s="1" t="str">
         <f>[8]TZData!J19</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -20163,7 +20130,7 @@
       </c>
       <c r="J200" s="1" t="str">
         <f>[8]TZData!J20</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -20204,7 +20171,7 @@
       </c>
       <c r="J201" s="1" t="str">
         <f>[8]TZData!J21</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -20245,7 +20212,7 @@
       </c>
       <c r="J202" s="1" t="str">
         <f>[8]TZData!J22</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -20286,7 +20253,7 @@
       </c>
       <c r="J203" s="1" t="str">
         <f>[9]ZMData!J2</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -20327,7 +20294,7 @@
       </c>
       <c r="J204" s="1" t="str">
         <f>[9]ZMData!J3</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -20368,7 +20335,7 @@
       </c>
       <c r="J205" s="1" t="str">
         <f>[9]ZMData!J4</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -20409,7 +20376,7 @@
       </c>
       <c r="J206" s="1" t="str">
         <f>[9]ZMData!J5</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -20450,7 +20417,7 @@
       </c>
       <c r="J207" s="1" t="str">
         <f>[9]ZMData!J6</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -20491,7 +20458,7 @@
       </c>
       <c r="J208" s="1" t="str">
         <f>[9]ZMData!J7</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -20532,7 +20499,7 @@
       </c>
       <c r="J209" s="1" t="str">
         <f>[9]ZMData!J8</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="210" spans="1:10">
@@ -20573,7 +20540,7 @@
       </c>
       <c r="J210" s="1" t="str">
         <f>[9]ZMData!J9</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -20614,7 +20581,7 @@
       </c>
       <c r="J211" s="1" t="str">
         <f>[9]ZMData!J10</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -20655,7 +20622,7 @@
       </c>
       <c r="J212" s="1" t="str">
         <f>[9]ZMData!J11</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -20696,7 +20663,7 @@
       </c>
       <c r="J213" s="1" t="str">
         <f>[9]ZMData!J12</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -20737,7 +20704,7 @@
       </c>
       <c r="J214" s="1" t="str">
         <f>[9]ZMData!J13</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="215" spans="1:10">
@@ -20778,7 +20745,7 @@
       </c>
       <c r="J215" s="1" t="str">
         <f>[9]ZMData!J14</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -20819,7 +20786,7 @@
       </c>
       <c r="J216" s="1" t="str">
         <f>[9]ZMData!J15</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -20860,7 +20827,7 @@
       </c>
       <c r="J217" s="1" t="str">
         <f>[9]ZMData!J16</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -20901,7 +20868,7 @@
       </c>
       <c r="J218" s="1" t="str">
         <f>[9]ZMData!J17</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="219" spans="1:10">
@@ -20942,7 +20909,7 @@
       </c>
       <c r="J219" s="1" t="str">
         <f>[9]ZMData!J18</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="220" spans="1:10">
@@ -20983,7 +20950,7 @@
       </c>
       <c r="J220" s="1" t="str">
         <f>[9]ZMData!J19</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="221" spans="1:10">
@@ -21024,7 +20991,7 @@
       </c>
       <c r="J221" s="1" t="str">
         <f>[9]ZMData!J20</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -21065,7 +21032,7 @@
       </c>
       <c r="J222" s="1" t="str">
         <f>[9]ZMData!J21</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="223" spans="1:10">
@@ -21106,7 +21073,7 @@
       </c>
       <c r="J223" s="1" t="str">
         <f>[9]ZMData!J22</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
   </sheetData>
@@ -21124,10 +21091,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J223"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2360" topLeftCell="A189"/>
-      <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K217" sqref="K217"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2360" topLeftCell="A103" activePane="bottomLeft"/>
+      <selection activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="H198" sqref="H198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -21158,11 +21125,11 @@
       </c>
       <c r="F1" s="6" t="str">
         <f>[1]USData!F1</f>
-        <v>iQ</v>
+        <v>iQp</v>
       </c>
       <c r="G1" s="6" t="str">
         <f>[1]USData!G1</f>
-        <v>iX</v>
+        <v>iXp</v>
       </c>
       <c r="H1" s="6" t="str">
         <f>[1]USData!H1</f>
@@ -21214,7 +21181,7 @@
       </c>
       <c r="J2" s="1" t="str">
         <f>[1]USData!J2</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -21256,7 +21223,7 @@
       </c>
       <c r="J3" s="1" t="str">
         <f>[1]USData!J3</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -21298,7 +21265,7 @@
       </c>
       <c r="J4" s="1" t="str">
         <f>[1]USData!J4</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -21340,7 +21307,7 @@
       </c>
       <c r="J5" s="1" t="str">
         <f>[1]USData!J5</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -21382,7 +21349,7 @@
       </c>
       <c r="J6" s="1" t="str">
         <f>[1]USData!J6</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -21424,7 +21391,7 @@
       </c>
       <c r="J7" s="1" t="str">
         <f>[1]USData!J7</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -21466,7 +21433,7 @@
       </c>
       <c r="J8" s="1" t="str">
         <f>[1]USData!J8</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -21508,7 +21475,7 @@
       </c>
       <c r="J9" s="1" t="str">
         <f>[1]USData!J9</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -21550,7 +21517,7 @@
       </c>
       <c r="J10" s="1" t="str">
         <f>[1]USData!J10</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -21592,7 +21559,7 @@
       </c>
       <c r="J11" s="1" t="str">
         <f>[1]USData!J11</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -21634,7 +21601,7 @@
       </c>
       <c r="J12" s="1" t="str">
         <f>[1]USData!J12</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -21676,7 +21643,7 @@
       </c>
       <c r="J13" s="1" t="str">
         <f>[1]USData!J13</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -21718,7 +21685,7 @@
       </c>
       <c r="J14" s="1" t="str">
         <f>[1]USData!J14</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -21760,7 +21727,7 @@
       </c>
       <c r="J15" s="1" t="str">
         <f>[1]USData!J15</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -21802,7 +21769,7 @@
       </c>
       <c r="J16" s="1" t="str">
         <f>[1]USData!J16</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -21844,7 +21811,7 @@
       </c>
       <c r="J17" s="1" t="str">
         <f>[1]USData!J17</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -21886,7 +21853,7 @@
       </c>
       <c r="J18" s="1" t="str">
         <f>[1]USData!J18</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -21928,7 +21895,7 @@
       </c>
       <c r="J19" s="1" t="str">
         <f>[1]USData!J19</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -21970,7 +21937,7 @@
       </c>
       <c r="J20" s="1" t="str">
         <f>[1]USData!J20</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -22012,7 +21979,7 @@
       </c>
       <c r="J21" s="1" t="str">
         <f>[1]USData!J21</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -22054,7 +22021,7 @@
       </c>
       <c r="J22" s="1" t="str">
         <f>[1]USData!J22</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -22096,7 +22063,7 @@
       </c>
       <c r="J23" s="1" t="str">
         <f>[1]USData!J23</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -22138,7 +22105,7 @@
       </c>
       <c r="J24" s="1" t="str">
         <f>[1]USData!J24</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -22180,7 +22147,7 @@
       </c>
       <c r="J25" s="1" t="str">
         <f>[1]USData!J25</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -22222,7 +22189,7 @@
       </c>
       <c r="J26" s="1" t="str">
         <f>[1]USData!J26</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -22264,7 +22231,7 @@
       </c>
       <c r="J27" s="1" t="str">
         <f>[1]USData!J27</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -22306,7 +22273,7 @@
       </c>
       <c r="J28" s="1" t="str">
         <f>[1]USData!J28</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -22348,7 +22315,7 @@
       </c>
       <c r="J29" s="1" t="str">
         <f>[1]USData!J29</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -22390,7 +22357,7 @@
       </c>
       <c r="J30" s="1" t="str">
         <f>[1]USData!J30</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -22432,7 +22399,7 @@
       </c>
       <c r="J31" s="1" t="str">
         <f>[1]USData!J31</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -22474,7 +22441,7 @@
       </c>
       <c r="J32" s="1" t="str">
         <f>[1]USData!J32</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -22516,7 +22483,7 @@
       </c>
       <c r="J33" s="1" t="str">
         <f>[1]USData!J33</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -22558,7 +22525,7 @@
       </c>
       <c r="J34" s="1" t="str">
         <f>[2]UKData!J2</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -22600,7 +22567,7 @@
       </c>
       <c r="J35" s="1" t="str">
         <f>[2]UKData!J3</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -22642,7 +22609,7 @@
       </c>
       <c r="J36" s="1" t="str">
         <f>[2]UKData!J4</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -22684,7 +22651,7 @@
       </c>
       <c r="J37" s="1" t="str">
         <f>[2]UKData!J5</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -22726,7 +22693,7 @@
       </c>
       <c r="J38" s="1" t="str">
         <f>[2]UKData!J6</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -22768,7 +22735,7 @@
       </c>
       <c r="J39" s="1" t="str">
         <f>[2]UKData!J7</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -22810,7 +22777,7 @@
       </c>
       <c r="J40" s="1" t="str">
         <f>[2]UKData!J8</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -22852,7 +22819,7 @@
       </c>
       <c r="J41" s="1" t="str">
         <f>[2]UKData!J9</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -22894,7 +22861,7 @@
       </c>
       <c r="J42" s="1" t="str">
         <f>[2]UKData!J10</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -22936,7 +22903,7 @@
       </c>
       <c r="J43" s="1" t="str">
         <f>[2]UKData!J11</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -22978,7 +22945,7 @@
       </c>
       <c r="J44" s="1" t="str">
         <f>[2]UKData!J12</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -23020,7 +22987,7 @@
       </c>
       <c r="J45" s="1" t="str">
         <f>[2]UKData!J13</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -23062,7 +23029,7 @@
       </c>
       <c r="J46" s="1" t="str">
         <f>[2]UKData!J14</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -23104,7 +23071,7 @@
       </c>
       <c r="J47" s="1" t="str">
         <f>[2]UKData!J15</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -23146,7 +23113,7 @@
       </c>
       <c r="J48" s="1" t="str">
         <f>[2]UKData!J16</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -23188,7 +23155,7 @@
       </c>
       <c r="J49" s="1" t="str">
         <f>[2]UKData!J17</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -23230,7 +23197,7 @@
       </c>
       <c r="J50" s="1" t="str">
         <f>[2]UKData!J18</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -23272,7 +23239,7 @@
       </c>
       <c r="J51" s="1" t="str">
         <f>[2]UKData!J19</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -23314,7 +23281,7 @@
       </c>
       <c r="J52" s="1" t="str">
         <f>[2]UKData!J20</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -23356,7 +23323,7 @@
       </c>
       <c r="J53" s="1" t="str">
         <f>[2]UKData!J21</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -23398,7 +23365,7 @@
       </c>
       <c r="J54" s="1" t="str">
         <f>[2]UKData!J22</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -23440,7 +23407,7 @@
       </c>
       <c r="J55" s="1" t="str">
         <f>[2]UKData!J23</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -23482,7 +23449,7 @@
       </c>
       <c r="J56" s="1" t="str">
         <f>[2]UKData!J24</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -23524,7 +23491,7 @@
       </c>
       <c r="J57" s="1" t="str">
         <f>[2]UKData!J25</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -23566,7 +23533,7 @@
       </c>
       <c r="J58" s="1" t="str">
         <f>[2]UKData!J26</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -23608,7 +23575,7 @@
       </c>
       <c r="J59" s="1" t="str">
         <f>[2]UKData!J27</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -23650,7 +23617,7 @@
       </c>
       <c r="J60" s="1" t="str">
         <f>[2]UKData!J28</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -23692,7 +23659,7 @@
       </c>
       <c r="J61" s="1" t="str">
         <f>[2]UKData!J29</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -23734,7 +23701,7 @@
       </c>
       <c r="J62" s="1" t="str">
         <f>[2]UKData!J30</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -23776,7 +23743,7 @@
       </c>
       <c r="J63" s="1" t="str">
         <f>[2]UKData!J31</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -23818,7 +23785,7 @@
       </c>
       <c r="J64" s="1" t="str">
         <f>[2]UKData!J32</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -23860,7 +23827,7 @@
       </c>
       <c r="J65" s="1" t="str">
         <f>[2]UKData!J33</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -23902,7 +23869,7 @@
       </c>
       <c r="J66" s="1" t="str">
         <f>[3]JPData!J2</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -23944,7 +23911,7 @@
       </c>
       <c r="J67" s="1" t="str">
         <f>[3]JPData!J3</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -23986,7 +23953,7 @@
       </c>
       <c r="J68" s="1" t="str">
         <f>[3]JPData!J4</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -24028,7 +23995,7 @@
       </c>
       <c r="J69" s="1" t="str">
         <f>[3]JPData!J5</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -24070,7 +24037,7 @@
       </c>
       <c r="J70" s="1" t="str">
         <f>[3]JPData!J6</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -24112,7 +24079,7 @@
       </c>
       <c r="J71" s="1" t="str">
         <f>[3]JPData!J7</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -24154,7 +24121,7 @@
       </c>
       <c r="J72" s="1" t="str">
         <f>[3]JPData!J8</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -24196,7 +24163,7 @@
       </c>
       <c r="J73" s="1" t="str">
         <f>[3]JPData!J9</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -24238,7 +24205,7 @@
       </c>
       <c r="J74" s="1" t="str">
         <f>[3]JPData!J10</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -24280,7 +24247,7 @@
       </c>
       <c r="J75" s="1" t="str">
         <f>[3]JPData!J11</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -24322,7 +24289,7 @@
       </c>
       <c r="J76" s="1" t="str">
         <f>[3]JPData!J12</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -24364,7 +24331,7 @@
       </c>
       <c r="J77" s="1" t="str">
         <f>[3]JPData!J13</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -24406,7 +24373,7 @@
       </c>
       <c r="J78" s="1" t="str">
         <f>[3]JPData!J14</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -24448,7 +24415,7 @@
       </c>
       <c r="J79" s="1" t="str">
         <f>[3]JPData!J15</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -24490,7 +24457,7 @@
       </c>
       <c r="J80" s="1" t="str">
         <f>[3]JPData!J16</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -24532,7 +24499,7 @@
       </c>
       <c r="J81" s="1" t="str">
         <f>[3]JPData!J17</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -24574,7 +24541,7 @@
       </c>
       <c r="J82" s="1" t="str">
         <f>[3]JPData!J18</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -24616,7 +24583,7 @@
       </c>
       <c r="J83" s="1" t="str">
         <f>[3]JPData!J19</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -24658,7 +24625,7 @@
       </c>
       <c r="J84" s="1" t="str">
         <f>[3]JPData!J20</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -24700,7 +24667,7 @@
       </c>
       <c r="J85" s="1" t="str">
         <f>[3]JPData!J21</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -24742,7 +24709,7 @@
       </c>
       <c r="J86" s="1" t="str">
         <f>[3]JPData!J22</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -24784,7 +24751,7 @@
       </c>
       <c r="J87" s="1" t="str">
         <f>[3]JPData!J23</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -24826,7 +24793,7 @@
       </c>
       <c r="J88" s="1" t="str">
         <f>[3]JPData!J24</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -24868,7 +24835,7 @@
       </c>
       <c r="J89" s="1" t="str">
         <f>[3]JPData!J25</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -24910,7 +24877,7 @@
       </c>
       <c r="J90" s="1" t="str">
         <f>[3]JPData!J26</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -24952,7 +24919,7 @@
       </c>
       <c r="J91" s="1" t="str">
         <f>[3]JPData!J27</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -24994,7 +24961,7 @@
       </c>
       <c r="J92" s="1" t="str">
         <f>[3]JPData!J28</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -25036,7 +25003,7 @@
       </c>
       <c r="J93" s="1" t="str">
         <f>[3]JPData!J29</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -25078,7 +25045,7 @@
       </c>
       <c r="J94" s="1" t="str">
         <f>[3]JPData!J30</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -25120,7 +25087,7 @@
       </c>
       <c r="J95" s="1" t="str">
         <f>[3]JPData!J31</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -25162,7 +25129,7 @@
       </c>
       <c r="J96" s="1" t="str">
         <f>[3]JPData!J32</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -25204,7 +25171,7 @@
       </c>
       <c r="J97" s="1" t="str">
         <f>[3]JPData!J33</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -25246,7 +25213,7 @@
       </c>
       <c r="J98" s="1" t="str">
         <f>[4]CNData!J2</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -25288,7 +25255,7 @@
       </c>
       <c r="J99" s="1" t="str">
         <f>[4]CNData!J3</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -25330,7 +25297,7 @@
       </c>
       <c r="J100" s="1" t="str">
         <f>[4]CNData!J4</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -25372,7 +25339,7 @@
       </c>
       <c r="J101" s="1" t="str">
         <f>[4]CNData!J5</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -25414,7 +25381,7 @@
       </c>
       <c r="J102" s="1" t="str">
         <f>[4]CNData!J6</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -25456,7 +25423,7 @@
       </c>
       <c r="J103" s="1" t="str">
         <f>[4]CNData!J7</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -25498,7 +25465,7 @@
       </c>
       <c r="J104" s="1" t="str">
         <f>[4]CNData!J8</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -25540,7 +25507,7 @@
       </c>
       <c r="J105" s="1" t="str">
         <f>[4]CNData!J9</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -25582,7 +25549,7 @@
       </c>
       <c r="J106" s="1" t="str">
         <f>[4]CNData!J10</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -25624,7 +25591,7 @@
       </c>
       <c r="J107" s="1" t="str">
         <f>[4]CNData!J11</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -25666,7 +25633,7 @@
       </c>
       <c r="J108" s="1" t="str">
         <f>[4]CNData!J12</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -25708,7 +25675,7 @@
       </c>
       <c r="J109" s="1" t="str">
         <f>[4]CNData!J13</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -25750,7 +25717,7 @@
       </c>
       <c r="J110" s="1" t="str">
         <f>[4]CNData!J14</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -25792,7 +25759,7 @@
       </c>
       <c r="J111" s="1" t="str">
         <f>[4]CNData!J15</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -25834,7 +25801,7 @@
       </c>
       <c r="J112" s="1" t="str">
         <f>[4]CNData!J16</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -25876,7 +25843,7 @@
       </c>
       <c r="J113" s="1" t="str">
         <f>[4]CNData!J17</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -25918,7 +25885,7 @@
       </c>
       <c r="J114" s="1" t="str">
         <f>[4]CNData!J18</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -25960,7 +25927,7 @@
       </c>
       <c r="J115" s="1" t="str">
         <f>[4]CNData!J19</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -26002,7 +25969,7 @@
       </c>
       <c r="J116" s="1" t="str">
         <f>[4]CNData!J20</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -26044,7 +26011,7 @@
       </c>
       <c r="J117" s="1" t="str">
         <f>[4]CNData!J21</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -26086,7 +26053,7 @@
       </c>
       <c r="J118" s="1" t="str">
         <f>[4]CNData!J22</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -26128,7 +26095,7 @@
       </c>
       <c r="J119" s="1" t="str">
         <f>[5]ZAData!J2</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -26170,7 +26137,7 @@
       </c>
       <c r="J120" s="1" t="str">
         <f>[5]ZAData!J3</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -26212,7 +26179,7 @@
       </c>
       <c r="J121" s="1" t="str">
         <f>[5]ZAData!J4</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -26254,7 +26221,7 @@
       </c>
       <c r="J122" s="1" t="str">
         <f>[5]ZAData!J5</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -26296,7 +26263,7 @@
       </c>
       <c r="J123" s="1" t="str">
         <f>[5]ZAData!J6</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -26338,7 +26305,7 @@
       </c>
       <c r="J124" s="1" t="str">
         <f>[5]ZAData!J7</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -26380,7 +26347,7 @@
       </c>
       <c r="J125" s="1" t="str">
         <f>[5]ZAData!J8</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -26422,7 +26389,7 @@
       </c>
       <c r="J126" s="1" t="str">
         <f>[5]ZAData!J9</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -26464,7 +26431,7 @@
       </c>
       <c r="J127" s="1" t="str">
         <f>[5]ZAData!J10</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -26506,7 +26473,7 @@
       </c>
       <c r="J128" s="1" t="str">
         <f>[5]ZAData!J11</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -26548,7 +26515,7 @@
       </c>
       <c r="J129" s="1" t="str">
         <f>[5]ZAData!J12</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -26590,7 +26557,7 @@
       </c>
       <c r="J130" s="1" t="str">
         <f>[5]ZAData!J13</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -26632,7 +26599,7 @@
       </c>
       <c r="J131" s="1" t="str">
         <f>[5]ZAData!J14</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -26674,7 +26641,7 @@
       </c>
       <c r="J132" s="1" t="str">
         <f>[5]ZAData!J15</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -26716,7 +26683,7 @@
       </c>
       <c r="J133" s="1" t="str">
         <f>[5]ZAData!J16</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -26758,7 +26725,7 @@
       </c>
       <c r="J134" s="1" t="str">
         <f>[5]ZAData!J17</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -26800,7 +26767,7 @@
       </c>
       <c r="J135" s="1" t="str">
         <f>[5]ZAData!J18</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -26842,7 +26809,7 @@
       </c>
       <c r="J136" s="1" t="str">
         <f>[5]ZAData!J19</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -26884,7 +26851,7 @@
       </c>
       <c r="J137" s="1" t="str">
         <f>[5]ZAData!J20</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -26926,7 +26893,7 @@
       </c>
       <c r="J138" s="1" t="str">
         <f>[5]ZAData!J21</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -26968,7 +26935,7 @@
       </c>
       <c r="J139" s="1" t="str">
         <f>[5]ZAData!J22</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -27010,7 +26977,7 @@
       </c>
       <c r="J140" s="1" t="str">
         <f>[6]SAData!J2</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -27052,7 +27019,7 @@
       </c>
       <c r="J141" s="1" t="str">
         <f>[6]SAData!J3</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -27094,7 +27061,7 @@
       </c>
       <c r="J142" s="1" t="str">
         <f>[6]SAData!J4</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -27136,7 +27103,7 @@
       </c>
       <c r="J143" s="1" t="str">
         <f>[6]SAData!J5</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -27178,7 +27145,7 @@
       </c>
       <c r="J144" s="1" t="str">
         <f>[6]SAData!J6</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="145" spans="1:10">
@@ -27220,7 +27187,7 @@
       </c>
       <c r="J145" s="1" t="str">
         <f>[6]SAData!J7</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -27262,7 +27229,7 @@
       </c>
       <c r="J146" s="1" t="str">
         <f>[6]SAData!J8</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="147" spans="1:10">
@@ -27304,7 +27271,7 @@
       </c>
       <c r="J147" s="1" t="str">
         <f>[6]SAData!J9</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="148" spans="1:10">
@@ -27346,7 +27313,7 @@
       </c>
       <c r="J148" s="1" t="str">
         <f>[6]SAData!J10</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="149" spans="1:10">
@@ -27388,7 +27355,7 @@
       </c>
       <c r="J149" s="1" t="str">
         <f>[6]SAData!J11</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="150" spans="1:10">
@@ -27430,7 +27397,7 @@
       </c>
       <c r="J150" s="1" t="str">
         <f>[6]SAData!J12</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -27472,7 +27439,7 @@
       </c>
       <c r="J151" s="1" t="str">
         <f>[6]SAData!J13</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="152" spans="1:10">
@@ -27514,7 +27481,7 @@
       </c>
       <c r="J152" s="1" t="str">
         <f>[6]SAData!J14</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="153" spans="1:10">
@@ -27556,7 +27523,7 @@
       </c>
       <c r="J153" s="1" t="str">
         <f>[6]SAData!J15</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -27598,7 +27565,7 @@
       </c>
       <c r="J154" s="1" t="str">
         <f>[6]SAData!J16</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -27640,7 +27607,7 @@
       </c>
       <c r="J155" s="1" t="str">
         <f>[6]SAData!J17</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -27682,7 +27649,7 @@
       </c>
       <c r="J156" s="1" t="str">
         <f>[6]SAData!J18</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="157" spans="1:10">
@@ -27724,7 +27691,7 @@
       </c>
       <c r="J157" s="1" t="str">
         <f>[6]SAData!J19</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -27766,7 +27733,7 @@
       </c>
       <c r="J158" s="1" t="str">
         <f>[6]SAData!J20</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -27808,7 +27775,7 @@
       </c>
       <c r="J159" s="1" t="str">
         <f>[6]SAData!J21</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -27850,7 +27817,7 @@
       </c>
       <c r="J160" s="1" t="str">
         <f>[6]SAData!J22</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="161" spans="1:10">
@@ -27892,7 +27859,7 @@
       </c>
       <c r="J161" s="1" t="str">
         <f>[7]IRData!J2</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="162" spans="1:10">
@@ -27934,7 +27901,7 @@
       </c>
       <c r="J162" s="1" t="str">
         <f>[7]IRData!J3</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="163" spans="1:10">
@@ -27976,7 +27943,7 @@
       </c>
       <c r="J163" s="1" t="str">
         <f>[7]IRData!J4</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="164" spans="1:10">
@@ -28018,7 +27985,7 @@
       </c>
       <c r="J164" s="1" t="str">
         <f>[7]IRData!J5</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="165" spans="1:10">
@@ -28060,7 +28027,7 @@
       </c>
       <c r="J165" s="1" t="str">
         <f>[7]IRData!J6</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -28102,7 +28069,7 @@
       </c>
       <c r="J166" s="1" t="str">
         <f>[7]IRData!J7</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -28144,7 +28111,7 @@
       </c>
       <c r="J167" s="1" t="str">
         <f>[7]IRData!J8</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -28186,7 +28153,7 @@
       </c>
       <c r="J168" s="1" t="str">
         <f>[7]IRData!J9</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="169" spans="1:10">
@@ -28228,7 +28195,7 @@
       </c>
       <c r="J169" s="1" t="str">
         <f>[7]IRData!J10</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="170" spans="1:10">
@@ -28270,7 +28237,7 @@
       </c>
       <c r="J170" s="1" t="str">
         <f>[7]IRData!J11</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="171" spans="1:10">
@@ -28312,7 +28279,7 @@
       </c>
       <c r="J171" s="1" t="str">
         <f>[7]IRData!J12</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="172" spans="1:10">
@@ -28354,7 +28321,7 @@
       </c>
       <c r="J172" s="1" t="str">
         <f>[7]IRData!J13</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="173" spans="1:10">
@@ -28396,7 +28363,7 @@
       </c>
       <c r="J173" s="1" t="str">
         <f>[7]IRData!J14</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="174" spans="1:10">
@@ -28438,7 +28405,7 @@
       </c>
       <c r="J174" s="1" t="str">
         <f>[7]IRData!J15</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="175" spans="1:10">
@@ -28480,7 +28447,7 @@
       </c>
       <c r="J175" s="1" t="str">
         <f>[7]IRData!J16</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -28522,7 +28489,7 @@
       </c>
       <c r="J176" s="1" t="str">
         <f>[7]IRData!J17</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -28564,7 +28531,7 @@
       </c>
       <c r="J177" s="1" t="str">
         <f>[7]IRData!J18</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="178" spans="1:10">
@@ -28606,7 +28573,7 @@
       </c>
       <c r="J178" s="1" t="str">
         <f>[7]IRData!J19</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -28648,7 +28615,7 @@
       </c>
       <c r="J179" s="1" t="str">
         <f>[7]IRData!J20</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -28690,7 +28657,7 @@
       </c>
       <c r="J180" s="1" t="str">
         <f>[7]IRData!J21</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -28732,7 +28699,7 @@
       </c>
       <c r="J181" s="1" t="str">
         <f>[7]IRData!J22</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -28774,7 +28741,7 @@
       </c>
       <c r="J182" s="1" t="str">
         <f>[8]TZData!J2</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -28816,7 +28783,7 @@
       </c>
       <c r="J183" s="1" t="str">
         <f>[8]TZData!J3</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -28858,7 +28825,7 @@
       </c>
       <c r="J184" s="1" t="str">
         <f>[8]TZData!J4</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -28900,7 +28867,7 @@
       </c>
       <c r="J185" s="1" t="str">
         <f>[8]TZData!J5</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -28942,7 +28909,7 @@
       </c>
       <c r="J186" s="1" t="str">
         <f>[8]TZData!J6</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -28984,7 +28951,7 @@
       </c>
       <c r="J187" s="1" t="str">
         <f>[8]TZData!J7</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -29026,7 +28993,7 @@
       </c>
       <c r="J188" s="1" t="str">
         <f>[8]TZData!J8</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="189" spans="1:10">
@@ -29068,7 +29035,7 @@
       </c>
       <c r="J189" s="1" t="str">
         <f>[8]TZData!J9</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -29110,7 +29077,7 @@
       </c>
       <c r="J190" s="1" t="str">
         <f>[8]TZData!J10</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -29152,7 +29119,7 @@
       </c>
       <c r="J191" s="1" t="str">
         <f>[8]TZData!J11</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -29194,7 +29161,7 @@
       </c>
       <c r="J192" s="1" t="str">
         <f>[8]TZData!J12</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -29236,7 +29203,7 @@
       </c>
       <c r="J193" s="1" t="str">
         <f>[8]TZData!J13</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -29278,7 +29245,7 @@
       </c>
       <c r="J194" s="1" t="str">
         <f>[8]TZData!J14</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -29320,7 +29287,7 @@
       </c>
       <c r="J195" s="1" t="str">
         <f>[8]TZData!J15</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -29362,7 +29329,7 @@
       </c>
       <c r="J196" s="1" t="str">
         <f>[8]TZData!J16</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -29404,7 +29371,7 @@
       </c>
       <c r="J197" s="1" t="str">
         <f>[8]TZData!J17</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -29446,7 +29413,7 @@
       </c>
       <c r="J198" s="1" t="str">
         <f>[8]TZData!J18</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -29488,7 +29455,7 @@
       </c>
       <c r="J199" s="1" t="str">
         <f>[8]TZData!J19</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -29530,7 +29497,7 @@
       </c>
       <c r="J200" s="1" t="str">
         <f>[8]TZData!J20</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -29572,7 +29539,7 @@
       </c>
       <c r="J201" s="1" t="str">
         <f>[8]TZData!J21</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -29614,7 +29581,7 @@
       </c>
       <c r="J202" s="1" t="str">
         <f>[8]TZData!J22</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -29656,7 +29623,7 @@
       </c>
       <c r="J203" s="1" t="str">
         <f>[9]ZMData!J2</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -29698,7 +29665,7 @@
       </c>
       <c r="J204" s="1" t="str">
         <f>[9]ZMData!J3</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -29740,7 +29707,7 @@
       </c>
       <c r="J205" s="1" t="str">
         <f>[9]ZMData!J4</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -29782,7 +29749,7 @@
       </c>
       <c r="J206" s="1" t="str">
         <f>[9]ZMData!J5</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -29824,7 +29791,7 @@
       </c>
       <c r="J207" s="1" t="str">
         <f>[9]ZMData!J6</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -29866,7 +29833,7 @@
       </c>
       <c r="J208" s="1" t="str">
         <f>[9]ZMData!J7</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -29908,7 +29875,7 @@
       </c>
       <c r="J209" s="1" t="str">
         <f>[9]ZMData!J8</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="210" spans="1:10">
@@ -29950,7 +29917,7 @@
       </c>
       <c r="J210" s="1" t="str">
         <f>[9]ZMData!J9</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -29992,7 +29959,7 @@
       </c>
       <c r="J211" s="1" t="str">
         <f>[9]ZMData!J10</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -30034,7 +30001,7 @@
       </c>
       <c r="J212" s="1" t="str">
         <f>[9]ZMData!J11</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -30076,7 +30043,7 @@
       </c>
       <c r="J213" s="1" t="str">
         <f>[9]ZMData!J12</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -30118,7 +30085,7 @@
       </c>
       <c r="J214" s="1" t="str">
         <f>[9]ZMData!J13</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="215" spans="1:10">
@@ -30160,7 +30127,7 @@
       </c>
       <c r="J215" s="1" t="str">
         <f>[9]ZMData!J14</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -30202,7 +30169,7 @@
       </c>
       <c r="J216" s="1" t="str">
         <f>[9]ZMData!J15</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -30244,7 +30211,7 @@
       </c>
       <c r="J217" s="1" t="str">
         <f>[9]ZMData!J16</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -30286,7 +30253,7 @@
       </c>
       <c r="J218" s="1" t="str">
         <f>[9]ZMData!J17</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="219" spans="1:10">
@@ -30328,7 +30295,7 @@
       </c>
       <c r="J219" s="1" t="str">
         <f>[9]ZMData!J18</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="220" spans="1:10">
@@ -30370,7 +30337,7 @@
       </c>
       <c r="J220" s="1" t="str">
         <f>[9]ZMData!J19</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="221" spans="1:10">
@@ -30412,7 +30379,7 @@
       </c>
       <c r="J221" s="1" t="str">
         <f>[9]ZMData!J20</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -30454,7 +30421,7 @@
       </c>
       <c r="J222" s="1" t="str">
         <f>[9]ZMData!J21</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
     <row r="223" spans="1:10">
@@ -30496,7 +30463,7 @@
       </c>
       <c r="J223" s="1" t="str">
         <f>[9]ZMData!J22</f>
-        <v>Calvin2011</v>
+        <v>Calvin</v>
       </c>
     </row>
   </sheetData>
